--- a/results_it/early_May_corr_ranking.xlsx
+++ b/results_it/early_May_corr_ranking.xlsx
@@ -453,482 +453,482 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_15-30days_avg</t>
+          <t>mean_vapor_pressure_hPa_30days_sum</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5843983338928589</v>
+        <v>0.5926794172160886</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006962275062839502</v>
+        <v>0.0004427190985102229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_30days_sum</t>
+          <t>min_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5179353782425403</v>
+        <v>0.586704174653208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00337190945558314</v>
+        <v>0.0005222971559947383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_30days_sum</t>
+          <t>min_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4888324336971097</v>
+        <v>0.5799784257735542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006123329696992597</v>
+        <v>0.0006267276482060598</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_60days_sum</t>
+          <t>min_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.47810528356752</v>
+        <v>0.5764430772422855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007534070715351188</v>
+        <v>0.0006886647541511243</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
+          <t>min_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4772252824846129</v>
+        <v>0.5730691652515005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007661114335829526</v>
+        <v>0.0007527292365021447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>min_temp_C_120days_sum</t>
+          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4659933096150701</v>
+        <v>0.5584123235394357</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009448695419015832</v>
+        <v>0.001095833925514889</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_120days_sum</t>
+          <t>min_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4599971153211567</v>
+        <v>0.555323148604476</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01053890810753729</v>
+        <v>0.001183515085267627</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_120days_sum</t>
+          <t>min_temp_C_150days_sum</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4594125288632748</v>
+        <v>0.5500933555814727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01065063092349542</v>
+        <v>0.001345981192990533</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_90days_sum</t>
+          <t>mean_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.45612059960241</v>
+        <v>0.530466803412308</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01129850854373024</v>
+        <v>0.002142073281600222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>min_temp_C_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_14days_sum</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4552358750052075</v>
+        <v>0.5233829643653388</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01147815843951458</v>
+        <v>0.002516228397814264</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_150days_sum</t>
+          <t>sunshine_duration_h_150days_sum</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4542409606051078</v>
+        <v>-0.5224893215332271</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01168303797114137</v>
+        <v>0.002567226051381283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_120days_sum</t>
+          <t>sunshine_duration_h_120days_sum</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4508711672000978</v>
+        <v>-0.5180702401176731</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01239988014760963</v>
+        <v>0.002832773428074144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_150days_sum</t>
+          <t>mean_humidity_pct_15-30days_avg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.4508000671990782</v>
+        <v>0.5151021404129787</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01241539255914697</v>
+        <v>0.003024170347876338</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_60days_sum</t>
+          <t>total_precip_mm_150days_sum</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4455004811148198</v>
+        <v>0.5059752973084951</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01361825347271469</v>
+        <v>0.003684292254378776</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_90days_sum</t>
+          <t>total_precip_mm_120days_sum</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4443378402689206</v>
+        <v>0.4837547753318475</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01389474955076308</v>
+        <v>0.005829862153088248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_150days_sum</t>
+          <t>mean_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4385146937566299</v>
+        <v>0.4834497160240542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01535102486156511</v>
+        <v>0.005865495385619856</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>min_temp_C_90days_sum</t>
+          <t>mean_vapor_pressure_hPa_60days_sum</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4329565213661975</v>
+        <v>0.4812801812135512</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01685728424234409</v>
+        <v>0.006124314422659988</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>min_temp_C_60days_sum</t>
+          <t>mean_humidity_pct_30days_sum</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4323809356452645</v>
+        <v>0.4789381226910063</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01702003600637528</v>
+        <v>0.006414580374235664</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>min_temp_C_150days_sum</t>
+          <t>mean_vapor_pressure_hPa_90days_sum</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.426877889918586</v>
+        <v>0.4752179571611282</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01864285690653673</v>
+        <v>0.006899710478983418</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_91-120days_avg</t>
+          <t>min_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4246837622323693</v>
+        <v>0.4697329521017729</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01932458640329721</v>
+        <v>0.007671706161713748</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>total_precip_mm_150days_sum</t>
+          <t>min_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4244456449434597</v>
+        <v>0.4697329521017729</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01939979303544176</v>
+        <v>0.007671706161713748</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>min_temp_C_30days_sum</t>
+          <t>min_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.413553671183638</v>
+        <v>0.469707844411652</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02310736747363644</v>
+        <v>0.007675401786144133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>total_precip_mm_120days_sum</t>
+          <t>min_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4066113783730771</v>
+        <v>0.4614480521526715</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0257602344911107</v>
+        <v>0.008976099178488049</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_14days_sum</t>
+          <t>sunshine_duration_h_91-120days_avg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4065647568541631</v>
+        <v>-0.4589310372197249</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02577885666352748</v>
+        <v>0.009407703943752857</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mean_temp_C_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_120days_sum</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4036211976201441</v>
+        <v>0.4465544115757547</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02697707846190141</v>
+        <v>0.01179355805192497</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_15-30days_avg</t>
+          <t>mean_vapor_pressure_hPa_7days_sum</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.3879901534470991</v>
+        <v>0.442813074826702</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03412405155061009</v>
+        <v>0.01260768949099144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_7days_sum</t>
+          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3732219961645163</v>
+        <v>0.4428130748267018</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04221153865117494</v>
+        <v>0.01260768949099144</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
+          <t>mean_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3732219961645163</v>
+        <v>0.4368806886390801</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04221153865117494</v>
+        <v>0.01399490275538667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>min_temp_C_8-14days_avg</t>
+          <t>mean_vapor_pressure_hPa_150days_sum</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3523486687473256</v>
+        <v>0.4360025186425445</v>
       </c>
       <c r="C30" t="n">
-        <v>0.05617932695498132</v>
+        <v>0.01421069701984216</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_30days_sum</t>
+          <t>mean_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.3506353020449193</v>
+        <v>0.4218969659647553</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05747046012512508</v>
+        <v>0.01807588308353229</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_90days_sum</t>
+          <t>mean_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.3437617538079667</v>
+        <v>0.4218969659647551</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06288605966209646</v>
+        <v>0.01807588308353235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>total_precip_mm_90days_sum</t>
+          <t>sunshine_duration_h_30days_sum</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3436848418793956</v>
+        <v>-0.4180023264254928</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06294883583331068</v>
+        <v>0.01928473737112657</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>min_temp_C_7days_sum</t>
+          <t>total_precip_mm_90days_sum</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3381787690214315</v>
+        <v>0.4045792632153357</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06757158812598932</v>
+        <v>0.02397464895564054</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>min_temp_C_1-7days_avg</t>
+          <t>sunshine_duration_h_90days_sum</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3381787690214314</v>
+        <v>-0.4042273902306012</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06757158812598932</v>
+        <v>0.02410916609193237</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mean_temp_C_8-14days_avg</t>
+          <t>mean_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.326888408986539</v>
+        <v>0.3996815031801806</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07787265816686828</v>
+        <v>0.02590340702940615</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>min_temp_C_91-120days_avg</t>
+          <t>total_precip_mm_15-30days_avg</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3243752101635324</v>
+        <v>0.3996418133443848</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08032191975788092</v>
+        <v>0.02591954071820683</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mean_temp_C_30days_sum</t>
+          <t>mean_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3211259000562878</v>
+        <v>0.3956447768479577</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08357570806651891</v>
+        <v>0.02758695889684988</v>
       </c>
     </row>
     <row r="39">
@@ -938,231 +938,231 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.320130546665318</v>
+        <v>0.3917345194663551</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08459234400743992</v>
+        <v>0.02930193155692492</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mean_temp_C_7days_sum</t>
+          <t>sunshine_duration_h_15-30days_avg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3058327980708037</v>
+        <v>-0.3873920878806715</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1002610072360328</v>
+        <v>0.03130720073045058</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mean_temp_C_1-7days_avg</t>
+          <t>max_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3058327980708035</v>
+        <v>0.3724959376775087</v>
       </c>
       <c r="C41" t="n">
-        <v>0.100261007236033</v>
+        <v>0.03904868792563661</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>min_temp_C_31-60days_avg</t>
+          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3053597566317984</v>
+        <v>0.3660787151292147</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1008143750490811</v>
+        <v>0.04282627622996957</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>total_precip_mm_15-30days_avg</t>
+          <t>mean_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3010712719077432</v>
+        <v>0.3659016154139168</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1059365103059055</v>
+        <v>0.04293453222471814</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>max_temp_C_8-14days_avg</t>
+          <t>total_precip_mm_61-90days_avg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2972476304381393</v>
+        <v>0.3598383750262902</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1106657520749368</v>
+        <v>0.04677489269943894</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_91-120days_avg</t>
+          <t>mean_temp_C_150days_sum</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2955738514091754</v>
+        <v>0.3587822850142451</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1127848253194944</v>
+        <v>0.04747094855269433</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mean_temp_C_60days_sum</t>
+          <t>sunshine_duration_h_60days_sum</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2931826759617809</v>
+        <v>-0.352940590357961</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1158643846742235</v>
+        <v>0.05147142816603331</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>min_temp_C_15-30days_avg</t>
+          <t>total_precip_mm_91-120days_avg</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2861998829642944</v>
+        <v>0.3374689426509467</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1252147650714586</v>
+        <v>0.06336510950466272</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_60days_sum</t>
+          <t>mean_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.2842184300737134</v>
+        <v>0.3353176028558797</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1279665505529642</v>
+        <v>0.0651765280038305</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_1-7days_avg</t>
+          <t>mean_humidity_pct_60days_sum</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2837731871058245</v>
+        <v>0.3284275455117188</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1285909588580176</v>
+        <v>0.07125115995084715</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_7days_sum</t>
+          <t>max_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2837731871058244</v>
+        <v>0.3248491291023626</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1285909588580176</v>
+        <v>0.07457479417610369</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>total_precip_mm_60days_sum</t>
+          <t>min_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2744286996929445</v>
+        <v>0.3181234577495302</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1422171386891846</v>
+        <v>0.08114479297779412</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_91-120days_avg</t>
+          <t>min_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2708817558380232</v>
+        <v>0.3121611971220536</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1476542303341524</v>
+        <v>0.08733317773138088</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>mean_temp_C_120days_sum</t>
+          <t>total_precip_mm_60days_sum</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2682464205265874</v>
+        <v>0.2913071816633226</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1517900248813298</v>
+        <v>0.1118389575043782</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_31-60days_avg</t>
+          <t>mean_humidity_pct_90days_sum</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2664085336285752</v>
+        <v>0.2885719198358131</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1547232562863761</v>
+        <v>0.1153999672103801</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mean_temp_C_90days_sum</t>
+          <t>sunshine_duration_h_7days_sum</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2652045908114138</v>
+        <v>-0.2711944690658167</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1566666494592863</v>
+        <v>0.1400207130524306</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_61-90days_avg</t>
+          <t>sunshine_duration_h_1-7days_avg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2598921673226954</v>
+        <v>-0.2711944690658167</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1654509332650936</v>
+        <v>0.1400207130524306</v>
       </c>
     </row>
     <row r="57">
@@ -1172,140 +1172,140 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2583037327250679</v>
+        <v>0.2672928429221617</v>
       </c>
       <c r="C57" t="n">
-        <v>0.168144182880018</v>
+        <v>0.146038498883005</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mean_temp_C_150days_sum</t>
+          <t>total_precip_mm_30days_sum</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2544697771329936</v>
+        <v>0.260090001272906</v>
       </c>
       <c r="C58" t="n">
-        <v>0.174772610299175</v>
+        <v>0.1576365633033135</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>total_precip_mm_91-120days_avg</t>
+          <t>mean_humidity_pct_120days_sum</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2508898541210421</v>
+        <v>0.2577965502720772</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1811263344444721</v>
+        <v>0.1614645052693391</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
+          <t>min_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2427158515041807</v>
+        <v>0.2577237794864168</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1962368601441451</v>
+        <v>0.1615870433929772</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>total_precip_mm_61-90days_avg</t>
+          <t>mean_humidity_pct_1-7days_avg</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2394157901794653</v>
+        <v>0.2517429916984792</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2025777900308648</v>
+        <v>0.1718866380427315</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
+          <t>mean_humidity_pct_7days_sum</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2315835335958177</v>
+        <v>0.2517429916984791</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2181878921437783</v>
+        <v>0.1718866380427323</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>max_temp_C_30days_sum</t>
+          <t>mean_humidity_pct_150days_sum</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2066623652193872</v>
+        <v>0.2510366869216429</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2732011389413366</v>
+        <v>0.1731329903426064</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_61-90days_avg</t>
+          <t>min_temp_C_121-150days_avg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.203931608857287</v>
+        <v>0.2508919579479506</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2797296106536161</v>
+        <v>0.1733891682366043</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>total_precip_mm_31-60days_avg</t>
+          <t>sunshine_duration_h_14days_sum</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2005337920852441</v>
+        <v>-0.2426361805572989</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2879915943153</v>
+        <v>0.1884494296216856</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>total_precip_mm_30days_sum</t>
+          <t>total_precip_mm_121-150days_avg</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1981319711765971</v>
+        <v>0.2318130930952869</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2939246088945741</v>
+        <v>0.2095448038112933</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
+          <t>max_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1963027707250972</v>
+        <v>0.231129511809081</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2984947142537098</v>
+        <v>0.2109294070509233</v>
       </c>
     </row>
     <row r="68">
@@ -1315,777 +1315,777 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.194899089249519</v>
+        <v>0.2311295118090808</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3020319356873121</v>
+        <v>0.2109294070509237</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>max_temp_C_7days_sum</t>
+          <t>max_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1948990892495189</v>
+        <v>0.2158000102013148</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3020319356873128</v>
+        <v>0.2436350277232799</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_121-150days_avg</t>
+          <t>sunshine_duration_h_61-90days_avg</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1945048847033003</v>
+        <v>-0.2153277163260465</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3030300371017791</v>
+        <v>0.2446933934220855</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>min_temp_C_61-90days_avg</t>
+          <t>mean_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.184491703370524</v>
+        <v>-0.2060736704052838</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3290759748724029</v>
+        <v>0.2660481446580153</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>total_precip_mm_121-150days_avg</t>
+          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1817960503342155</v>
+        <v>0.1998600849736694</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3363151045017091</v>
+        <v>0.2810482789786348</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_1-7days_avg</t>
+          <t>mean_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.179822715975532</v>
+        <v>0.1940295546475204</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3416753481688303</v>
+        <v>0.2956084869759769</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_7days_sum</t>
+          <t>mean_wind_speed_mps_121-150days_avg</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.179822715975532</v>
+        <v>-0.1900167786503739</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3416753481688303</v>
+        <v>0.3059021302011762</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>total_precip_mm_8-14days_avg</t>
+          <t>max_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.178808441082092</v>
+        <v>0.1863706933673999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3444504490234241</v>
+        <v>0.3154478243933587</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>mean_temp_C_31-60days_avg</t>
+          <t>max_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1778601939012682</v>
+        <v>0.1843553674578444</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3470571517832687</v>
+        <v>0.3208027088596527</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>mean_temp_C_15-30days_avg</t>
+          <t>mean_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1737052533682376</v>
+        <v>0.1785392733517638</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3586182571921542</v>
+        <v>0.3365696777830964</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_121-150days_avg</t>
+          <t>mean_temp_C_121-150days_avg</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.1713794932472546</v>
+        <v>0.1781494397247335</v>
       </c>
       <c r="C78" t="n">
-        <v>0.365188365386345</v>
+        <v>0.3376430815019038</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>mean_temp_C_91-120days_avg</t>
+          <t>mean_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1639705181760315</v>
+        <v>-0.1667780602877261</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3865870091184458</v>
+        <v>0.3698657061007167</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>max_temp_C_60days_sum</t>
+          <t>max_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1594730514471815</v>
+        <v>-0.1623744468864226</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3999216348736258</v>
+        <v>0.382813959155232</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_121-150days_avg</t>
+          <t>max_wind_speed_mps_121-150days_avg</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1535894769158382</v>
+        <v>-0.1607949609878491</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4177544402602139</v>
+        <v>0.3875215343902356</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_8-14days_avg</t>
+          <t>max_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.1512910378633124</v>
+        <v>-0.1594760483899619</v>
       </c>
       <c r="C82" t="n">
-        <v>0.424839243717502</v>
+        <v>0.3914779672031654</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_121-150days_avg</t>
+          <t>max_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.145915817611996</v>
+        <v>-0.1594760483899619</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4416643663318498</v>
+        <v>0.3914779672031654</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>total_precip_mm_1-7days_avg</t>
+          <t>mean_vapor_pressure_hPa_121-150days_avg</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1430302654426043</v>
+        <v>0.1592512646240356</v>
       </c>
       <c r="C84" t="n">
-        <v>0.450843035345654</v>
+        <v>0.3921545745564587</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>total_precip_mm_7days_sum</t>
+          <t>mean_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1430302654426043</v>
+        <v>-0.1549456666022314</v>
       </c>
       <c r="C85" t="n">
-        <v>0.450843035345654</v>
+        <v>0.4052437606038802</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_150days_sum</t>
+          <t>mean_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.1406557344548486</v>
+        <v>-0.1533770528566339</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4584720702346438</v>
+        <v>0.4100731376408868</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>min_temp_C_121-150days_avg</t>
+          <t>max_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.140400688094482</v>
+        <v>-0.1524935023317213</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4592955462241601</v>
+        <v>0.4128075731012677</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_7days_sum</t>
+          <t>mean_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.1390641264349944</v>
+        <v>-0.1482639142187598</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4636237211329904</v>
+        <v>0.4260383148526601</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_1-7days_avg</t>
+          <t>mean_wind_speed_mps_150days_sum</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.1390641264349944</v>
+        <v>-0.1481434448131331</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4636237211329904</v>
+        <v>0.4264185576677711</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_30days_sum</t>
+          <t>max_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.1358661843665147</v>
+        <v>-0.1447626815722827</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4740661608997974</v>
+        <v>0.4371655722351329</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_90days_sum</t>
+          <t>max_wind_speed_mps_150days_sum</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.1278640589552119</v>
+        <v>-0.1410171698887776</v>
       </c>
       <c r="C91" t="n">
-        <v>0.50072212869257</v>
+        <v>0.4492425216178594</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_14days_sum</t>
+          <t>mean_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.127640289231354</v>
+        <v>-0.1397188685309112</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5014781603389296</v>
+        <v>0.4534701663892735</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_14days_sum</t>
+          <t>max_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.1266371333191152</v>
+        <v>-0.1377968249261332</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5048744459154894</v>
+        <v>0.4597677378035919</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_120days_sum</t>
+          <t>max_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.1234875449235902</v>
+        <v>-0.1356422602716465</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5156116500949853</v>
+        <v>0.4668819184948631</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_150days_sum</t>
+          <t>max_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.1209483489441192</v>
+        <v>-0.1335442651426099</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5243487504505814</v>
+        <v>0.4738644926184216</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_60days_sum</t>
+          <t>max_wind_speed_mps_120days_sum</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.1196828782751252</v>
+        <v>-0.1334103789119626</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5287297014992325</v>
+        <v>0.4743119319630708</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_15-30days_avg</t>
+          <t>total_precip_mm_31-60days_avg</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.1183361369691397</v>
+        <v>0.1305272776541176</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5334112643594399</v>
+        <v>0.4840001884452688</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_61-90days_avg</t>
+          <t>mean_wind_speed_mps_120days_sum</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.1171289922997006</v>
+        <v>-0.1286315134821466</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5376243193687092</v>
+        <v>0.4904255734819224</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_91-120days_avg</t>
+          <t>mean_humidity_pct_61-90days_avg</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.1130251749701595</v>
+        <v>0.126793852947014</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5520640526330818</v>
+        <v>0.4966952263602436</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_120days_sum</t>
+          <t>mean_humidity_pct_8-14days_avg</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.111744939439608</v>
+        <v>0.1245260629058431</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5566052290207366</v>
+        <v>0.5044877765182068</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>max_temp_C_90days_sum</t>
+          <t>max_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1109004219841224</v>
+        <v>0.1245069225395753</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5596102411403681</v>
+        <v>0.5045538051665193</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_30days_sum</t>
+          <t>max_wind_speed_mps_91-120days_avg</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.1108311883440253</v>
+        <v>-0.1233086559783781</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5598569219034898</v>
+        <v>0.5086960488203359</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_90days_sum</t>
+          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.1105262271409677</v>
+        <v>0.1225541899899835</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5609440972838104</v>
+        <v>0.511312767256758</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_61-90days_avg</t>
+          <t>max_temp_C_150days_sum</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.1076911177769953</v>
+        <v>0.1201250063090514</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5710970926693831</v>
+        <v>0.5197829013791915</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_14days_sum</t>
+          <t>max_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.1069609262901495</v>
+        <v>-0.1178037074528843</v>
       </c>
       <c r="C105" t="n">
-        <v>0.573725349519685</v>
+        <v>0.5279403923745551</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_60days_sum</t>
+          <t>max_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.106811414132788</v>
+        <v>-0.1112521227605196</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5742641721844775</v>
+        <v>0.55129199487225</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_91-120days_avg</t>
+          <t>mean_vapor_pressure_hPa_91-120days_avg</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.103477303974343</v>
+        <v>0.09901053399537946</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5863382573322194</v>
+        <v>0.5961684402992132</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_8-14days_avg</t>
+          <t>mean_humidity_pct_121-150days_avg</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.09912092007446294</v>
+        <v>0.09819417219746651</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6022796998212889</v>
+        <v>0.5992163146916238</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>mean_temp_C_121-150days_avg</t>
+          <t>mean_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.09887877257589561</v>
+        <v>-0.09766437213762488</v>
       </c>
       <c r="C109" t="n">
-        <v>0.603171186164309</v>
+        <v>0.6011978858120508</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_31-60days_avg</t>
+          <t>total_precip_mm_1-7days_avg</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.09521112228176656</v>
+        <v>0.09458174885068234</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6167418927921645</v>
+        <v>0.6127827015142961</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_15-30days_avg</t>
+          <t>total_precip_mm_7days_sum</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.08828184345764943</v>
+        <v>0.09458174885068232</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6427188174595527</v>
+        <v>0.6127827015142961</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_1-7days_avg</t>
+          <t>mean_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.08780532472575439</v>
+        <v>0.09111255308731273</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6445209512995086</v>
+        <v>0.6259306685940307</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_7days_sum</t>
+          <t>mean_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.08780532472575436</v>
+        <v>-0.09078668318014364</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6445209512995086</v>
+        <v>0.6271715802087978</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>max_temp_C_120days_sum</t>
+          <t>max_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.08407556794584939</v>
+        <v>-0.0904292960455248</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6586940196525148</v>
+        <v>0.6285336588190024</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>max_temp_C_31-60days_avg</t>
+          <t>mean_wind_speed_mps_91-120days_avg</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.08147904421433501</v>
+        <v>-0.08881872867159916</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6686300537771785</v>
+        <v>0.6346866949358361</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>max_temp_C_150days_sum</t>
+          <t>mean_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.08043626371597123</v>
+        <v>-0.0881609259109816</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6726360393754804</v>
+        <v>0.6372066974814795</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_8-14days_avg</t>
+          <t>mean_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.0792358230954307</v>
+        <v>-0.08816092591098156</v>
       </c>
       <c r="C117" t="n">
-        <v>0.677258591954497</v>
+        <v>0.6372066974814792</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_31-60days_avg</t>
+          <t>total_precip_mm_8-14days_avg</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.07706539602449103</v>
+        <v>-0.08735631806128442</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6856454219643381</v>
+        <v>0.6402945102930907</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>mean_temp_C_61-90days_avg</t>
+          <t>max_temp_C_121-150days_avg</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.07525216348724714</v>
+        <v>0.0838494682312047</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6926802323132852</v>
+        <v>0.6538210556643103</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>max_temp_C_15-30days_avg</t>
+          <t>mean_humidity_pct_91-120days_avg</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.06416464847033036</v>
+        <v>0.07999234737718609</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7362237743909366</v>
+        <v>0.6688239065094765</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>max_temp_C_121-150days_avg</t>
+          <t>sunshine_duration_h_31-60days_avg</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.0614254170417836</v>
+        <v>-0.07561792652754731</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7471120989827174</v>
+        <v>0.6859914544444684</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_8-14days_avg</t>
+          <t>max_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.05677252166246012</v>
+        <v>0.06378262716481829</v>
       </c>
       <c r="C122" t="n">
-        <v>0.765715937556102</v>
+        <v>0.7331936559097205</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_31-60days_avg</t>
+          <t>max_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.04691993122639535</v>
+        <v>0.05998427648335186</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8055223715493762</v>
+        <v>0.7485571082635566</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>total_precip_mm_14days_sum</t>
+          <t>mean_humidity_pct_31-60days_avg</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.04050565838412663</v>
+        <v>0.0540236410188565</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8317025607715471</v>
+        <v>0.7728561963761442</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>max_temp_C_61-90days_avg</t>
+          <t>total_precip_mm_14days_sum</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.02095494499938227</v>
+        <v>0.0426048594998247</v>
       </c>
       <c r="C125" t="n">
-        <v>0.912480881060256</v>
+        <v>0.8199814589824089</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>max_temp_C_91-120days_avg</t>
+          <t>sunshine_duration_h_121-150days_avg</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.01732667894905327</v>
+        <v>-0.04233934642544197</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9275909487441976</v>
+        <v>0.8210852735208586</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_121-150days_avg</t>
+          <t>sunshine_duration_h_8-14days_avg</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.01450810476912639</v>
+        <v>-0.0133412602172733</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9393463483516433</v>
+        <v>0.9432135156345326</v>
       </c>
     </row>
   </sheetData>
